--- a/data/long_bre/P23_11-Urba-long_bre.xlsx
+++ b/data/long_bre/P23_11-Urba-long_bre.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -514,6 +521,8 @@
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
     <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -529,12 +538,14 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -551,12 +562,22 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
         </is>
       </c>
     </row>
@@ -567,6 +588,8 @@
       <c r="D3" s="2" t="n"/>
       <c r="E3" s="2" t="n"/>
       <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -576,27 +599,37 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,37</t>
+          <t>0,64</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>4,93</t>
+          <t>4,42</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,11%</t>
+          <t>7,21</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>62,21%</t>
+          <t>3,8%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>54,02%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>78,66%</t>
         </is>
       </c>
     </row>
@@ -609,22 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,65; 6,52</t>
+          <t>-8,22; 5,65</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,03; 9,12</t>
+          <t>0,88; 8,09</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-34,75; 49,2</t>
+          <t>2,38; 12,68</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>9,89; 150,38</t>
+          <t>-34,7; 40,52</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>7,81; 125,33</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>16,72; 197,79</t>
         </is>
       </c>
     </row>
@@ -632,27 +675,37 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-4,79</t>
+          <t>-5,4</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-12,44</t>
+          <t>-11,6</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-6,59%</t>
+          <t>-2,87</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-15,17%</t>
+          <t>-7,36%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>-14,29%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>-4,1%</t>
         </is>
       </c>
     </row>
@@ -665,22 +718,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-11,78; 3,68</t>
+          <t>-11,57; 3,01</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-17,69; -7,24</t>
+          <t>-17,07; -5,71</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-15,33; 5,38</t>
+          <t>-10,41; 10,31</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-21,12; -9,12</t>
+          <t>-14,99; 4,33</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>-20,38; -7,43</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>-13,89; 17,18</t>
         </is>
       </c>
     </row>
@@ -688,27 +751,37 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>4,42</t>
+          <t>4,75</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>7,51</t>
+          <t>7,18</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>44,44%</t>
+          <t>-4,34</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>74,35%</t>
+          <t>48,47%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>67,27%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>-20,8%</t>
         </is>
       </c>
     </row>
@@ -721,54 +794,70 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,41; 8,88</t>
+          <t>0,1; 9,28</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,45; 11,88</t>
+          <t>2,66; 11,8</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,36; 119,35</t>
+          <t>-20,83; 2,82</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>25,75; 147,47</t>
+          <t>-1,27; 127,0</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>17,92; 143,73</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>-59,65; 19,11</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Intermedio</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>5,28</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3,07</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>43,27%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>25,9%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -781,50 +870,74 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,87; 11,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,55; 7,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-13,46; 123,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-17,14; 91,25</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-13,1</t>
+          <t>5,19</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-5,85</t>
+          <t>3,16</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-16,85%</t>
+          <t>6,34</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-7,79%</t>
+          <t>43,93%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>26,53%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>67,96%</t>
         </is>
       </c>
     </row>
@@ -837,22 +950,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-20,62; -4,31</t>
+          <t>-2,28; 11,35</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-11,84; 1,87</t>
+          <t>-2,92; 7,86</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-25,51; -6,58</t>
+          <t>0,94; 11,25</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-15,45; 2,25</t>
+          <t>-16,64; 131,96</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-20,05; 88,23</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>4,4; 152,9</t>
         </is>
       </c>
     </row>
@@ -860,27 +983,37 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>7,82</t>
+          <t>-13,51</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>2,78</t>
+          <t>-6,14</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>77,7%</t>
+          <t>-4,36</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>21,35%</t>
+          <t>-17,31%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>-8,18%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>-6,06%</t>
         </is>
       </c>
     </row>
@@ -893,54 +1026,70 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,32; 13,13</t>
+          <t>-21,27; -5,96</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-2,99; 7,6</t>
+          <t>-13,62; 0,24</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>18,36; 181,67</t>
+          <t>-12,55; 4,84</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-17,8; 71,73</t>
+          <t>-26,14; -8,18</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>-17,21; 0,27</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>-16,39; 7,14</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-2,44</t>
+          <t>8,32</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>3,33</t>
+          <t>2,97</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-14,12%</t>
+          <t>-1,98</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>51,72%</t>
+          <t>82,03%</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>22,69%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>-10,61%</t>
         </is>
       </c>
     </row>
@@ -953,22 +1102,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-15,05; 11,35</t>
+          <t>3,01; 13,62</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,5; 10,45</t>
+          <t>-2,32; 7,81</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-62,36; 124,34</t>
+          <t>-10,54; 5,25</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-50,67; 316,22</t>
+          <t>25,19; 186,03</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>-14,03; 79,79</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>-43,1; 37,47</t>
         </is>
       </c>
     </row>
@@ -976,27 +1135,37 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-4,88</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-11,25</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-6,77%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-13,66%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1009,50 +1178,74 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-20,71; 9,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-22,63; 4,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-25,65; 15,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-25,82; 5,86</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>7,32</t>
+          <t>-0,56</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>7,92</t>
+          <t>3,83</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>68,5%</t>
+          <t>-4,48</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>70,64%</t>
+          <t>-3,48%</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>60,78%</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>-21,99%</t>
         </is>
       </c>
     </row>
@@ -1065,54 +1258,70 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-3,47; 17,59</t>
+          <t>-13,12; 10,92</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-7,39; 16,9</t>
+          <t>-4,74; 11,04</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-25,27; 292,89</t>
+          <t>-32,63; 12,52</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-42,73; 295,14</t>
+          <t>-57,05; 141,39</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-50,16; 317,08</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-79,92; 192,03</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>1,96</t>
+          <t>-7,18</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>4,01</t>
+          <t>-11,12</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>12,76%</t>
+          <t>3,25</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>43,21%</t>
+          <t>-9,77%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>-13,64%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>4,81%</t>
         </is>
       </c>
     </row>
@@ -1125,22 +1334,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-2,9; 6,25</t>
+          <t>-22,39; 7,77</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>0,92; 6,99</t>
+          <t>-23,47; 4,94</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-16,53; 50,49</t>
+          <t>-14,95; 30,22</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>7,97; 89,99</t>
+          <t>-28,22; 12,26</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-27,28; 6,48</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-19,01; 64,38</t>
         </is>
       </c>
     </row>
@@ -1148,27 +1367,37 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-8,05</t>
+          <t>7,74</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-9,71</t>
+          <t>7,29</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-10,79%</t>
+          <t>1,23</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-12,24%</t>
+          <t>73,9%</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>59,82%</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>10,26%</t>
         </is>
       </c>
     </row>
@@ -1181,22 +1410,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-12,92; -3,0</t>
+          <t>-2,4; 18,26</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-13,78; -5,45</t>
+          <t>-8,36; 17,08</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-16,67; -4,39</t>
+          <t>-11,94; 15,6</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-16,88; -7,02</t>
+          <t>-20,4; 283,56</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>-41,86; 275,47</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>-66,96; 242,95</t>
         </is>
       </c>
     </row>
@@ -1204,27 +1443,37 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>6,09</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>5,7</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>60,36%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>50,02%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1237,34 +1486,359 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>3,2; 9,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>2,2; 8,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>26,34; 110,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>16,51; 94,12</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>Más diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>2,28</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>3,84</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>5,46</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>15,41%</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>40,76%</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>51,52%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>-2,21; 6,91</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>0,53; 6,46</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>0,52; 9,37</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>-12,81; 60,15</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>3,73; 83,77</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>-0,94; 109,74</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>-8,77</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>-9,37</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>-2,76</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>-11,67%</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>-11,9%</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>-3,92%</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n"/>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>-13,83; -3,78</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>-13,65; -5,17</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>-8,53; 5,59</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>-17,77; -5,21</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>-16,73; -6,79</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>-11,41; 8,71</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Menos Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>6,49</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>5,53</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>-2,7</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>64,79%</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>46,78%</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>-14,25%</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>3,24; 9,97</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>2,12; 8,92</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>-10,66; 2,27</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>27,78; 118,03</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>14,76; 91,53</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>-41,05; 15,56</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A28:A35"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
